--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilik\Documents\samurai\yoda\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32934853-7149-44E2-B07B-4F0AAF18E7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7D5D-DD47-D544-B735-B39B5F69D25B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -918,6 +918,80 @@
     </rPh>
     <rPh sb="74" eb="75">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字が入力された時、アラートを出す</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="1">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号以外にもmaxlengthを指定</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依田</t>
+    <rPh sb="0" eb="1">
+      <t>ヨダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面が正常に表示されるようになり、修正可能</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男・女で表示されるように修正</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード削除</t>
+    <rPh sb="0" eb="2">
+      <t>サキウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値（1950/1/1）になるように修正</t>
+    <rPh sb="0" eb="3">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値（男）が選択されるよう修正</t>
+    <rPh sb="0" eb="1">
+      <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1161,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,6 +1358,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2350,24 +2430,24 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.08203125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="52" style="33" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.25" style="33" customWidth="1"/>
-    <col min="11" max="11" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2422,13 +2502,17 @@
         <v>64</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="H2" s="35">
+        <v>43927</v>
+      </c>
       <c r="I2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11">
@@ -2453,16 +2537,20 @@
       <c r="G3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="41">
+        <v>43927</v>
+      </c>
       <c r="I3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="K3" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="34">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -2484,16 +2572,20 @@
       <c r="G4" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="41">
+        <v>43929</v>
+      </c>
       <c r="I4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="36"/>
+      <c r="J4" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="K4" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="34">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -2513,13 +2605,17 @@
         <v>72</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="38"/>
+        <v>106</v>
+      </c>
+      <c r="H5" s="42">
+        <v>43927</v>
+      </c>
       <c r="I5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11">
@@ -2599,10 +2695,18 @@
       <c r="F8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="41">
+        <v>43927</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>111</v>
+      </c>
       <c r="K8" s="34" t="s">
         <v>75</v>
       </c>
@@ -2657,10 +2761,18 @@
       <c r="F10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="36"/>
+      <c r="G10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="41">
+        <v>43927</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>112</v>
+      </c>
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11">
@@ -2682,13 +2794,21 @@
       <c r="F11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="41">
+        <v>43927</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>113</v>
+      </c>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="45">
+    <row r="12" spans="1:11" ht="51">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -2713,7 +2833,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11" ht="34">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -2738,7 +2858,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:11" ht="34">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -2763,7 +2883,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:11" ht="45">
+    <row r="15" spans="1:11" ht="51">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -3778,7 +3898,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
@@ -3925,7 +4045,7 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
@@ -4741,7 +4861,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
@@ -5193,7 +5313,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7D5D-DD47-D544-B735-B39B5F69D25B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D81E8-6601-44ED-9716-E502F1F737BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="121">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -936,10 +936,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電話番号以外にもmaxlengthを指定</t>
     <rPh sb="0" eb="2">
       <t>デンワ</t>
@@ -947,13 +943,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="1">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>依田</t>
     <rPh sb="0" eb="1">
       <t>ヨダ</t>
@@ -992,6 +981,155 @@
     <t>初期値（男）が選択されるよう修正</t>
     <rPh sb="0" eb="1">
       <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストに半角数字以外、文字を入力することができます。また、確認画面に遷移してしまいます。アラートが表示されません。
+理想は入力時に半角数字のみ入力できるようにしてください。</t>
+    <rPh sb="5" eb="7">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">m、f以外の値の場合、スクリプトエラーになっています。
+必ず、実装した箇所のロジックはテストで通すように確認しましょう。
+</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">追加画面を再度ひらくと、空になっています。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+正しく修正されない。下記のjsonが送付されている。
+男→女　変更したが反映されていない。
+</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1000,7 +1138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1205,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1235,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1511,45 @@
     <xf numFmtId="56" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1383,6 +1568,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91281</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>686594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2840972</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1353378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F9D5E2-621A-4864-97B4-422279A96FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12676187" y="1908969"/>
+          <a:ext cx="2749691" cy="666784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1784437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>539762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC14A63-95A4-450A-B250-2050B817DB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12680156" y="2992437"/>
+          <a:ext cx="1689187" cy="254013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>658811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1541536</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2030481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627AE758-6705-4F57-AA95-C78ADCA0E0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12703969" y="4778374"/>
+          <a:ext cx="1422473" cy="1371670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2427,13 +2749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368C126-A40E-499B-AC3B-97E3CED0FE3B}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -2444,10 +2768,12 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.1640625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2478,44 +2804,56 @@
       <c r="J1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="34">
+    <row r="2" spans="1:13">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="39">
         <v>43918</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="39">
+        <v>43927</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="35">
-        <v>43927</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="52">
+        <v>43931</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="60">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -2546,11 +2884,17 @@
       <c r="J3" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="44">
+        <v>43931</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34">
+    <row r="4" spans="1:13" ht="117" customHeight="1">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -2579,46 +2923,58 @@
         <v>99</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="44">
+        <v>43931</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="34">
-      <c r="A5" s="38">
+    <row r="5" spans="1:13" ht="57" customHeight="1">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="47">
         <v>43918</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="49">
         <v>43927</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="44">
+        <v>43931</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -2645,9 +3001,11 @@
         <v>99</v>
       </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -2674,9 +3032,11 @@
         <v>99</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" ht="178" customHeight="1">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -2695,120 +3055,144 @@
       <c r="F8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>109</v>
+      <c r="G8" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="H8" s="41">
         <v>43927</v>
       </c>
       <c r="I8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="44">
+        <v>43931</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>43918</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="52">
+        <v>43931</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="38">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>43918</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="42">
+        <v>43927</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="K10" s="52">
+        <v>43931</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>43918</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="42">
+        <v>43927</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35">
-        <v>43918</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35">
-        <v>43918</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="41">
-        <v>43927</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35">
-        <v>43918</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="41">
-        <v>43927</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" ht="51">
+      <c r="K11" s="52">
+        <v>43931</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" ht="45">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -2831,9 +3215,11 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" ht="34">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -2856,9 +3242,11 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" ht="34">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -2881,9 +3269,11 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:11" ht="51">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="45">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -2906,9 +3296,11 @@
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2919,9 +3311,11 @@
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2932,9 +3326,11 @@
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -2945,9 +3341,11 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2958,9 +3356,11 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2971,9 +3371,11 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2984,9 +3386,11 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2997,9 +3401,11 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -3010,9 +3416,11 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -3023,9 +3431,11 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="36"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -3036,9 +3446,11 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -3049,9 +3461,11 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -3062,9 +3476,11 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -3075,9 +3491,11 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -3088,9 +3506,11 @@
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -3101,9 +3521,11 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="36"/>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -3114,9 +3536,11 @@
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="36"/>
-      <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -3127,9 +3551,11 @@
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
       <c r="J32" s="36"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="34"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -3140,9 +3566,11 @@
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
       <c r="J33" s="36"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="34"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -3153,9 +3581,11 @@
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
       <c r="J34" s="36"/>
-      <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="34"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -3166,9 +3596,11 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -3179,9 +3611,11 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -3192,9 +3626,11 @@
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
       <c r="J37" s="36"/>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -3205,9 +3641,11 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -3218,9 +3656,11 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
       <c r="J39" s="36"/>
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="34"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -3231,9 +3671,11 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="34"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -3244,9 +3686,11 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
       <c r="J41" s="36"/>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="34"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -3257,9 +3701,11 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
       <c r="J42" s="36"/>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="34"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -3270,9 +3716,11 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
       <c r="J43" s="36"/>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -3283,9 +3731,11 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="34"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="34"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -3296,9 +3746,11 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
       <c r="J45" s="36"/>
-      <c r="K45" s="34"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="34"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -3309,9 +3761,11 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
       <c r="J46" s="36"/>
-      <c r="K46" s="34"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="34"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -3322,9 +3776,11 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
       <c r="J47" s="36"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="34"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -3335,9 +3791,11 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="36"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="34"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -3348,9 +3806,11 @@
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="36"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="34"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -3361,9 +3821,11 @@
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="36"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="34"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -3374,9 +3836,11 @@
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
       <c r="J51" s="36"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="34"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -3387,9 +3851,11 @@
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3400,9 +3866,11 @@
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -3413,9 +3881,11 @@
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
       <c r="J54" s="36"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -3426,9 +3896,11 @@
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
       <c r="J55" s="36"/>
-      <c r="K55" s="34"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -3439,9 +3911,11 @@
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
       <c r="J56" s="36"/>
-      <c r="K56" s="34"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3452,9 +3926,11 @@
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
       <c r="J57" s="36"/>
-      <c r="K57" s="34"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -3465,9 +3941,11 @@
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="34"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="34"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -3478,9 +3956,11 @@
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
       <c r="J59" s="36"/>
-      <c r="K59" s="34"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="34"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -3491,9 +3971,11 @@
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
       <c r="J60" s="36"/>
-      <c r="K60" s="34"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -3504,9 +3986,11 @@
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="34"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="34"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -3517,9 +4001,11 @@
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
       <c r="J62" s="36"/>
-      <c r="K62" s="34"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="34"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -3530,9 +4016,11 @@
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
       <c r="J63" s="36"/>
-      <c r="K63" s="34"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -3543,9 +4031,11 @@
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="36"/>
-      <c r="K64" s="34"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -3556,9 +4046,11 @@
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
       <c r="J65" s="36"/>
-      <c r="K65" s="34"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -3569,9 +4061,11 @@
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
       <c r="J66" s="36"/>
-      <c r="K66" s="34"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -3582,9 +4076,11 @@
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
       <c r="J67" s="36"/>
-      <c r="K67" s="34"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -3595,9 +4091,11 @@
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
       <c r="J68" s="36"/>
-      <c r="K68" s="34"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="34"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -3608,9 +4106,11 @@
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
       <c r="J69" s="36"/>
-      <c r="K69" s="34"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="34"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -3621,9 +4121,11 @@
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
       <c r="J70" s="36"/>
-      <c r="K70" s="34"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="34"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -3634,9 +4136,11 @@
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
       <c r="J71" s="36"/>
-      <c r="K71" s="34"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -3647,9 +4151,11 @@
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
       <c r="J72" s="36"/>
-      <c r="K72" s="34"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="34"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -3660,9 +4166,11 @@
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
       <c r="J73" s="36"/>
-      <c r="K73" s="34"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="34"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -3673,9 +4181,11 @@
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
       <c r="J74" s="36"/>
-      <c r="K74" s="34"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="34"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -3686,9 +4196,11 @@
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
       <c r="J75" s="36"/>
-      <c r="K75" s="34"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="34"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -3699,9 +4211,11 @@
       <c r="H76" s="34"/>
       <c r="I76" s="34"/>
       <c r="J76" s="36"/>
-      <c r="K76" s="34"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="34"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -3712,9 +4226,11 @@
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
       <c r="J77" s="36"/>
-      <c r="K77" s="34"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="34"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -3725,9 +4241,11 @@
       <c r="H78" s="34"/>
       <c r="I78" s="34"/>
       <c r="J78" s="36"/>
-      <c r="K78" s="34"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="34"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -3738,9 +4256,11 @@
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
       <c r="J79" s="36"/>
-      <c r="K79" s="34"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="34"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -3751,9 +4271,11 @@
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
       <c r="J80" s="36"/>
-      <c r="K80" s="34"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="34"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -3764,9 +4286,11 @@
       <c r="H81" s="34"/>
       <c r="I81" s="34"/>
       <c r="J81" s="36"/>
-      <c r="K81" s="34"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="34"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -3777,9 +4301,11 @@
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
       <c r="J82" s="36"/>
-      <c r="K82" s="34"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="34"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -3790,9 +4316,11 @@
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
       <c r="J83" s="36"/>
-      <c r="K83" s="34"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="34"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -3803,9 +4331,11 @@
       <c r="H84" s="34"/>
       <c r="I84" s="34"/>
       <c r="J84" s="36"/>
-      <c r="K84" s="34"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -3816,9 +4346,11 @@
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
       <c r="J85" s="36"/>
-      <c r="K85" s="34"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="34"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -3829,9 +4361,11 @@
       <c r="H86" s="34"/>
       <c r="I86" s="34"/>
       <c r="J86" s="36"/>
-      <c r="K86" s="34"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="34"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -3842,9 +4376,11 @@
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
       <c r="J87" s="36"/>
-      <c r="K87" s="34"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="34"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -3855,9 +4391,11 @@
       <c r="H88" s="34"/>
       <c r="I88" s="34"/>
       <c r="J88" s="36"/>
-      <c r="K88" s="34"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="34"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -3868,9 +4406,11 @@
       <c r="H89" s="34"/>
       <c r="I89" s="34"/>
       <c r="J89" s="36"/>
-      <c r="K89" s="34"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="34"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -3881,12 +4421,15 @@
       <c r="H90" s="34"/>
       <c r="I90" s="34"/>
       <c r="J90" s="36"/>
-      <c r="K90" s="34"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3898,7 +4441,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
@@ -4045,7 +4588,7 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
@@ -4861,7 +5404,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
@@ -5313,7 +5856,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D81E8-6601-44ED-9716-E502F1F737BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C7085-D897-A44C-A5C6-CF4247C0A066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -922,13 +922,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英数字が入力された時、アラートを出す</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対応中</t>
     <rPh sb="0" eb="1">
       <t>タイオウチュウ</t>
@@ -971,20 +964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期値（1950/1/1）になるように修正</t>
-    <rPh sb="0" eb="3">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期値（男）が選択されるよう修正</t>
-    <rPh sb="0" eb="1">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -1003,56 +982,6 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストに半角数字以外、文字を入力することができます。また、確認画面に遷移してしまいます。アラートが表示されません。
-理想は入力時に半角数字のみ入力できるようにしてください。</t>
-    <rPh sb="5" eb="7">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>リソウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1133,12 +1062,140 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">テキストに半角数字以外、文字を入力することができます。また、確認画面に遷移してしまいます。アラートが表示されません。
+理想は入力時に半角数字のみ入力できるようにしてください。
+</t>
+    <rPh sb="5" eb="7">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面を開いた後に再度追加画面を開くと初期値(null)が入っていない点を修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">×生年月日が戻っていない
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>修正画面を開いた後に再度追加画面を開くと初期値(男)が入っていない点を修正</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">半角数字以外が入力された時、アラートを出す
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4/18
+半角数字以外が入力された際に忠告</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/18
+初期値（男）が選択されるよう修正</t>
+    <rPh sb="98" eb="99">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/18
+初期値（null）になるように修正</t>
+    <rPh sb="261" eb="264">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,6 +1270,34 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック (本文)"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1381,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,15 +1596,6 @@
     <xf numFmtId="56" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1529,25 +1605,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2751,13 +2839,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368C126-A40E-499B-AC3B-97E3CED0FE3B}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -2768,12 +2856,12 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.1640625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44.1640625" style="33" customWidth="1"/>
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2805,10 +2893,10 @@
         <v>101</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
         <v>47</v>
@@ -2833,7 +2921,7 @@
       <c r="F2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="38" t="s">
         <v>97</v>
       </c>
       <c r="H2" s="39">
@@ -2843,17 +2931,17 @@
         <v>99</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="52">
+        <v>106</v>
+      </c>
+      <c r="K2" s="46">
         <v>43931</v>
       </c>
-      <c r="L2" s="55" t="s">
-        <v>116</v>
+      <c r="L2" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="1:13" ht="60">
+    <row r="3" spans="1:13" ht="85">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -2876,18 +2964,18 @@
         <v>98</v>
       </c>
       <c r="H3" s="41">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="44">
+      <c r="J3" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="47">
         <v>43931</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="48" t="s">
         <v>117</v>
       </c>
       <c r="M3" s="34" t="s">
@@ -2922,57 +3010,59 @@
       <c r="I4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="44">
+      <c r="J4" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="47">
         <v>43931</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57" customHeight="1">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44">
+        <v>43918</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="55">
+        <v>43927</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="47">
+        <v>43931</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1">
-      <c r="A5" s="46">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47">
-        <v>43918</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="49">
-        <v>43927</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="44">
-        <v>43931</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="38">
@@ -3001,8 +3091,8 @@
         <v>99</v>
       </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13">
@@ -3032,8 +3122,8 @@
         <v>99</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="178" customHeight="1">
@@ -3055,29 +3145,29 @@
       <c r="F8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="34" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="41">
         <v>43927</v>
       </c>
       <c r="I8" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="44">
+      <c r="K8" s="47">
         <v>43931</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M8" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -3104,17 +3194,17 @@
         <v>99</v>
       </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="52">
+      <c r="K9" s="46">
         <v>43931</v>
       </c>
-      <c r="L9" s="53" t="s">
-        <v>116</v>
+      <c r="L9" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="M9" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="19">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -3143,17 +3233,17 @@
         <v>99</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="52">
+        <v>109</v>
+      </c>
+      <c r="K10" s="46">
         <v>43931</v>
       </c>
-      <c r="L10" s="53" t="s">
-        <v>116</v>
+      <c r="L10" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="19">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -3182,17 +3272,17 @@
         <v>99</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="52">
+        <v>110</v>
+      </c>
+      <c r="K11" s="46">
         <v>43931</v>
       </c>
-      <c r="L11" s="53" t="s">
-        <v>116</v>
+      <c r="L11" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" ht="45">
+    <row r="12" spans="1:13" ht="51">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -3215,11 +3305,11 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="30">
+    <row r="13" spans="1:13" ht="34">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -3246,7 +3336,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="30">
+    <row r="14" spans="1:13" ht="34">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -3273,7 +3363,7 @@
       <c r="L14" s="36"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="45">
+    <row r="15" spans="1:13" ht="51">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -4437,11 +4527,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677BF44-DFEB-4BB0-A00B-23137BA6F039}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
@@ -4588,7 +4678,7 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
@@ -5404,7 +5494,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
@@ -5856,7 +5946,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C7085-D897-A44C-A5C6-CF4247C0A066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54ED6B-E5A7-AC40-9712-2E2FE5309AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -1190,12 +1190,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="0" eb="2">
+      <t>ユーザー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="1">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDで検索可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1327,14 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック (本文)"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1466,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,6 +1663,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1636,6 +1676,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2839,10 +2885,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368C126-A40E-499B-AC3B-97E3CED0FE3B}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2969,7 +3015,7 @@
       <c r="I3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="57" t="s">
         <v>120</v>
       </c>
       <c r="K3" s="47">
@@ -3010,7 +3056,7 @@
       <c r="I4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="57" t="s">
         <v>121</v>
       </c>
       <c r="K4" s="47">
@@ -3045,13 +3091,13 @@
       <c r="G5" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="56">
         <v>43927</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="54" t="s">
         <v>122</v>
       </c>
       <c r="K5" s="47">
@@ -3060,7 +3106,7 @@
       <c r="L5" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3391,16 +3437,36 @@
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="36"/>
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41">
+        <v>43939</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="53">
+        <v>43939</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>127</v>
+      </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="34"/>

--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54ED6B-E5A7-AC40-9712-2E2FE5309AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FA824-B5DE-416B-ADC8-92C5033A0F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -918,13 +918,6 @@
     </rPh>
     <rPh sb="74" eb="75">
       <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="1">
-      <t>タイオウチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1117,6 +1110,67 @@
     <t>修正画面を開いた後に再度追加画面を開くと初期値(null)が入っていない点を修正</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/18
+初期値（男）が選択されるよう修正</t>
+    <rPh sb="0" eb="21">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/18
+初期値（null）になるように修正</t>
+    <rPh sb="0" eb="22">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="0" eb="2">
+      <t>ユーザー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="1">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDで検索可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字以外が入力された時、アラートを出す
+4/18
+半角数字以外が入力された際に忠告</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1128,7 +1182,6 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック (本文)"/>
         <charset val="128"/>
       </rPr>
@@ -1149,73 +1202,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">半角数字以外が入力された時、アラートを出す
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4/18
-半角数字以外が入力された際に忠告</t>
-    </r>
+    <t>生年月日が未選択の状態で追加するとエラーが表示されず、完了画面まで遷移するが登録されない。</t>
     <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/18
-初期値（男）が選択されるよう修正</t>
-    <rPh sb="98" eb="99">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/18
-初期値（null）になるように修正</t>
-    <rPh sb="261" eb="264">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー管理</t>
-    <rPh sb="0" eb="2">
-      <t>ユーザー</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索</t>
-    <rPh sb="0" eb="1">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索できない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーIDで検索可能</t>
-    <rPh sb="0" eb="2">
-      <t>カノウ</t>
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1224,7 +1243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,21 +1337,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="游ゴシック (本文)"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1503,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,9 +1641,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1633,15 +1656,6 @@
     <xf numFmtId="56" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1651,9 +1665,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1663,26 +1674,44 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2885,13 +2914,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368C126-A40E-499B-AC3B-97E3CED0FE3B}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -2907,7 +2936,7 @@
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2939,238 +2968,238 @@
         <v>101</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>43918</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="38">
         <v>43927</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="46">
+      <c r="J2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="42">
         <v>43931</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:13" ht="85">
-      <c r="A3" s="34">
+      <c r="L2" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" ht="75">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="38">
         <v>43918</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>98</v>
+      <c r="G3" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="H3" s="41">
         <v>43929</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="47">
+      <c r="J3" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="50">
         <v>43931</v>
       </c>
-      <c r="L3" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="34" t="s">
+      <c r="L3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="117" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="38">
         <v>43918</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>98</v>
+      <c r="G4" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="H4" s="41">
         <v>43929</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="47">
+      <c r="J4" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="50">
         <v>43931</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57" customHeight="1">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38">
+        <v>43918</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="52">
+        <v>43927</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="50">
+        <v>43931</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1">
-      <c r="A5" s="43">
-        <v>4</v>
-      </c>
-      <c r="B5" s="44">
+      <c r="M5" s="60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38">
         <v>43918</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C6" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D6" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="56">
-        <v>43927</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="F6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" s="47">
-        <v>43931</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="38">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="J6" s="39"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38">
         <v>43918</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="F7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="38">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39">
-        <v>43918</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="178" customHeight="1">
       <c r="A8" s="34">
@@ -3194,141 +3223,141 @@
       <c r="G8" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>43927</v>
       </c>
       <c r="I8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="47">
+      <c r="K8" s="43">
         <v>43931</v>
       </c>
-      <c r="L8" s="51" t="s">
-        <v>116</v>
+      <c r="L8" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="M8" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
-      <c r="A9" s="38">
+    <row r="9" spans="1:13">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>43918</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="46">
+      <c r="J9" s="39"/>
+      <c r="K9" s="42">
         <v>43931</v>
       </c>
-      <c r="L9" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="38" t="s">
+      <c r="L9" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
-      <c r="A10" s="38">
+    <row r="10" spans="1:13">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>43918</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>43927</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="42">
+        <v>43931</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38">
+        <v>43918</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="41">
+        <v>43927</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K11" s="42">
         <v>43931</v>
       </c>
-      <c r="L10" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="19">
-      <c r="A11" s="38">
-        <v>10</v>
-      </c>
-      <c r="B11" s="39">
-        <v>43918</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="42">
-        <v>43927</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="46">
-        <v>43931</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:13" ht="51">
+      <c r="L11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="45">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -3351,11 +3380,11 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="34">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -3382,7 +3411,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="34">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -3409,7 +3438,7 @@
       <c r="L14" s="36"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="51">
+    <row r="15" spans="1:13" ht="45">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -3440,44 +3469,56 @@
       <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>43939</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="H16" s="55">
+        <v>43939</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="57" t="s">
         <v>124</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="53">
-        <v>43939</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>127</v>
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36"/>
+    <row r="17" spans="1:13" ht="30">
+      <c r="A17" s="48">
+        <v>16</v>
+      </c>
+      <c r="B17" s="53">
+        <v>43940</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3488,7 +3529,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -4597,7 +4638,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
@@ -4744,7 +4785,7 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
@@ -5560,7 +5601,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
@@ -6012,9 +6053,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FA824-B5DE-416B-ADC8-92C5033A0F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFD063-C9C9-AD49-BC67-8977713743C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -932,13 +932,6 @@
     <t>依田</t>
     <rPh sb="0" eb="1">
       <t>ヨダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正画面が正常に表示されるようになり、修正可能</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1235,6 +1228,20 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスが未選択の場合はエラーメッセージ表示</t>
+    <rPh sb="0" eb="3">
+      <t>ミセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webAPI上では修正可能</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウデハ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1529,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1711,6 +1718,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2914,13 +2930,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E368C126-A40E-499B-AC3B-97E3CED0FE3B}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -2936,7 +2952,7 @@
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2968,10 +2984,10 @@
         <v>101</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" t="s">
         <v>47</v>
@@ -3012,11 +3028,11 @@
         <v>43931</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="37"/>
     </row>
-    <row r="3" spans="1:13" ht="75">
+    <row r="3" spans="1:13" ht="85">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -3045,13 +3061,13 @@
         <v>99</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="50">
         <v>43931</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>83</v>
@@ -3086,16 +3102,16 @@
         <v>99</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="50">
         <v>43931</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M4" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57" customHeight="1">
@@ -3127,16 +3143,16 @@
         <v>99</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="50">
         <v>43931</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3224,25 +3240,25 @@
         <v>98</v>
       </c>
       <c r="H8" s="40">
-        <v>43927</v>
+        <v>43947</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K8" s="43">
         <v>43931</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -3273,13 +3289,13 @@
         <v>43931</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="19">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -3308,17 +3324,17 @@
         <v>99</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="42">
         <v>43931</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="19">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -3347,17 +3363,17 @@
         <v>99</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="42">
         <v>43931</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="45">
+    <row r="12" spans="1:13" ht="51">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -3376,7 +3392,6 @@
       <c r="F12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="36"/>
@@ -3384,7 +3399,7 @@
       <c r="L12" s="44"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="30">
+    <row r="13" spans="1:13" ht="34">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -3403,15 +3418,23 @@
       <c r="F13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="36"/>
+      <c r="G13" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="61">
+        <v>43947</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>128</v>
+      </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="30">
+    <row r="14" spans="1:13" ht="34">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -3430,15 +3453,23 @@
       <c r="F14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="36"/>
+      <c r="G14" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="63">
+        <v>43947</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="45">
+    <row r="15" spans="1:13" ht="51">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -3476,16 +3507,16 @@
         <v>99</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="H16" s="55">
         <v>43939</v>
@@ -3494,13 +3525,13 @@
         <v>99</v>
       </c>
       <c r="J16" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="34">
       <c r="A17" s="48">
         <v>16</v>
       </c>
@@ -3511,13 +3542,13 @@
         <v>94</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -4638,7 +4669,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
@@ -4785,7 +4816,7 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
@@ -5601,7 +5632,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1"/>
@@ -6053,7 +6084,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書兼課題表.xlsx
+++ b/仕様書/仕様書兼課題表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risako/git/samurai_yoda/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFD063-C9C9-AD49-BC67-8977713743C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120FF951-F21F-8744-BB46-1673FEE4ABBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{2C66D8A2-86AE-4B85-B0BC-5143E9EDF251}"/>
   </bookViews>
   <sheets>
     <sheet name="課題表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="132">
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
@@ -1239,9 +1239,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>webAPI上では修正可能</t>
-    <rPh sb="0" eb="1">
-      <t>ジョウデハ</t>
+    <t>未選択の場合エラー表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての項目において修正可能</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1250,7 +1258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,6 +1376,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック (本文)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1536,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,6 +1742,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1839,13 +1857,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:colOff>141945</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>658811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1541536</xdr:colOff>
+      <xdr:colOff>1564418</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2030481</xdr:rowOff>
     </xdr:to>
@@ -1870,7 +1888,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12703969" y="4778374"/>
+          <a:off x="12784738" y="4869261"/>
           <a:ext cx="1422473" cy="1371670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2931,9 +2949,9 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3239,14 +3257,14 @@
       <c r="G8" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="40">
-        <v>43947</v>
+      <c r="H8" s="61">
+        <v>43955</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>129</v>
+      <c r="J8" s="62" t="s">
+        <v>130</v>
       </c>
       <c r="K8" s="43">
         <v>43931</v>
@@ -3254,8 +3272,8 @@
       <c r="L8" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>75</v>
+      <c r="M8" s="64" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19">
@@ -3550,10 +3568,16 @@
       <c r="F17" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="61">
+        <v>43953</v>
+      </c>
       <c r="I17" s="34"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="62" t="s">
+        <v>129</v>
+      </c>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="34"/>
